--- a/src/test/resources/while1/while.xlsx
+++ b/src/test/resources/while1/while.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\while1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008D30D-A3BB-40E3-A4E7-C6C1475DE206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07662C73-2412-4994-8A9D-0F52A9A3C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>setProperty</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>userName == 'hugang' &amp;&amp; parseInt(times) &lt;= 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target":"userName == 'hugang' &amp;&amp; parseInt(times) &lt;= 10"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -452,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -464,11 +468,15 @@
     <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.75" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -487,8 +495,20 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -498,10 +518,20 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -512,10 +542,16 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/resources/while1/while.xlsx
+++ b/src/test/resources/while1/while.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\while1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07662C73-2412-4994-8A9D-0F52A9A3C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318C60E9-1521-4109-AE22-54DC8E39DC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -85,6 +85,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -95,12 +102,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,13 +117,133 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -129,18 +256,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,9 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -477,81 +620,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
